--- a/DATA/Discriminacion.xlsx
+++ b/DATA/Discriminacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34638\Desktop\El precio de la discapacidad\El-precio-de-la-discapacidad\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAF0735-EACD-48EA-91E5-311DF481FE08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E9690E-D357-43B2-9C61-B449450BD79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="11952" windowHeight="10452" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla-0" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Encuesta de Integración Social y Salud 2012. Barreras en la participación social</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Comunidad</t>
+  </si>
+  <si>
+    <t>AMBOS_SEXOS</t>
   </si>
 </sst>
 </file>
@@ -2367,10 +2370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D4A8F6-76D3-4718-9AF8-98C37993E21E}">
-  <dimension ref="A4:D23"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2378,283 +2381,283 @@
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5">
+        <v>9.94</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7.56</v>
+      </c>
+      <c r="D2" s="5">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10.15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.83</v>
+      </c>
+      <c r="D3" s="5">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9.56</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.74</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5">
-        <v>9.94</v>
+        <v>11.94</v>
       </c>
       <c r="C5" s="5">
-        <v>7.56</v>
+        <v>12.88</v>
       </c>
       <c r="D5" s="5">
-        <v>12.23</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
-        <v>10.15</v>
+        <v>14.02</v>
       </c>
       <c r="C6" s="5">
-        <v>5.83</v>
+        <v>9.5</v>
       </c>
       <c r="D6" s="5">
-        <v>14.38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5">
-        <v>9.56</v>
+        <v>10.82</v>
       </c>
       <c r="C7" s="5">
-        <v>8.74</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="D7" s="5">
-        <v>10.3</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5">
-        <v>11.94</v>
+        <v>11.07</v>
       </c>
       <c r="C8" s="5">
-        <v>12.88</v>
+        <v>8.83</v>
       </c>
       <c r="D8" s="5">
-        <v>11.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5">
-        <v>14.02</v>
+        <v>14.74</v>
       </c>
       <c r="C9" s="5">
-        <v>9.5</v>
+        <v>11.81</v>
       </c>
       <c r="D9" s="5">
-        <v>18.45</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5">
-        <v>10.82</v>
+        <v>14.55</v>
       </c>
       <c r="C10" s="5">
-        <v>9.2100000000000009</v>
+        <v>11.95</v>
       </c>
       <c r="D10" s="5">
-        <v>12.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5">
-        <v>11.07</v>
+        <v>12.65</v>
       </c>
       <c r="C11" s="5">
-        <v>8.83</v>
+        <v>12.75</v>
       </c>
       <c r="D11" s="5">
-        <v>13.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5">
-        <v>14.74</v>
+        <v>10.88</v>
       </c>
       <c r="C12" s="5">
-        <v>11.81</v>
+        <v>8.99</v>
       </c>
       <c r="D12" s="5">
-        <v>17.71</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5">
-        <v>14.55</v>
+        <v>9.19</v>
       </c>
       <c r="C13" s="5">
-        <v>11.95</v>
+        <v>6.02</v>
       </c>
       <c r="D13" s="5">
-        <v>17.03</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5">
-        <v>12.65</v>
+        <v>13.93</v>
       </c>
       <c r="C14" s="5">
-        <v>12.75</v>
+        <v>11.17</v>
       </c>
       <c r="D14" s="5">
-        <v>12.55</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5">
-        <v>10.88</v>
+        <v>13.99</v>
       </c>
       <c r="C15" s="5">
-        <v>8.99</v>
+        <v>10.61</v>
       </c>
       <c r="D15" s="5">
-        <v>12.73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5">
-        <v>9.19</v>
+        <v>12.23</v>
       </c>
       <c r="C16" s="5">
-        <v>6.02</v>
+        <v>7.38</v>
       </c>
       <c r="D16" s="5">
-        <v>12.11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5">
-        <v>13.93</v>
+        <v>9.77</v>
       </c>
       <c r="C17" s="5">
-        <v>11.17</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="D17" s="5">
-        <v>16.43</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5">
-        <v>13.99</v>
+        <v>16.64</v>
       </c>
       <c r="C18" s="5">
-        <v>10.61</v>
+        <v>13.92</v>
       </c>
       <c r="D18" s="5">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5">
-        <v>12.23</v>
+        <v>12.99</v>
       </c>
       <c r="C19" s="5">
-        <v>7.38</v>
+        <v>2.34</v>
       </c>
       <c r="D19" s="5">
-        <v>17</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5">
-        <v>9.77</v>
+        <v>15.69</v>
       </c>
       <c r="C20" s="5">
-        <v>8.7899999999999991</v>
+        <v>15.51</v>
       </c>
       <c r="D20" s="5">
-        <v>10.69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="5">
-        <v>16.64</v>
-      </c>
-      <c r="C21" s="5">
-        <v>13.92</v>
-      </c>
-      <c r="D21" s="5">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5">
-        <v>12.99</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2.34</v>
-      </c>
-      <c r="D22" s="5">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="5">
-        <v>15.69</v>
-      </c>
-      <c r="C23" s="5">
-        <v>15.51</v>
-      </c>
-      <c r="D23" s="5">
         <v>15.9</v>
       </c>
     </row>
